--- a/example/mp_reports_01KP_26.05.2018-1.31.6.883_50_items/subset_summ_50.xlsx
+++ b/example/mp_reports_01KP_26.05.2018-1.31.6.883_50_items/subset_summ_50.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="20">
   <si>
     <t>Elapsed Time (ms)</t>
   </si>
@@ -77,16 +77,22 @@
     <t>GA deviation</t>
   </si>
   <si>
-    <t xml:space="preserve"> max deviation</t>
+    <t>FAIL</t>
   </si>
   <si>
-    <t>FAIL</t>
+    <t>GA avg deviation</t>
+  </si>
+  <si>
+    <t>GA max deviation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000000%"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -117,12 +123,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -405,8 +412,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -480,7 +487,7 @@
         <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F3">
         <v>4158.5</v>
@@ -536,7 +543,7 @@
         <v>4</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F4">
         <v>4166</v>
@@ -592,7 +599,7 @@
         <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F5">
         <v>4115.5</v>
@@ -648,7 +655,7 @@
         <v>3</v>
       </c>
       <c r="E6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F6">
         <v>4125.5</v>
@@ -704,7 +711,7 @@
         <v>8</v>
       </c>
       <c r="E7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F7">
         <v>4127</v>
@@ -760,7 +767,7 @@
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F8">
         <v>4127.5</v>
@@ -816,7 +823,7 @@
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F9">
         <v>4126.5</v>
@@ -872,7 +879,7 @@
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F10">
         <v>4136.5</v>
@@ -928,7 +935,7 @@
         <v>6</v>
       </c>
       <c r="E11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F11">
         <v>4135</v>
@@ -984,7 +991,7 @@
         <v>8</v>
       </c>
       <c r="E12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F12">
         <v>4130</v>
@@ -1040,7 +1047,7 @@
         <v>28</v>
       </c>
       <c r="E13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F13">
         <v>4123.5</v>
@@ -1096,7 +1103,7 @@
         <v>4</v>
       </c>
       <c r="E14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F14">
         <v>4128</v>
@@ -1152,7 +1159,7 @@
         <v>18.5</v>
       </c>
       <c r="E15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F15">
         <v>4142</v>
@@ -1208,7 +1215,7 @@
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F16">
         <v>4132</v>
@@ -1264,7 +1271,7 @@
         <v>7</v>
       </c>
       <c r="E17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F17">
         <v>4149.5</v>
@@ -1320,7 +1327,7 @@
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F18">
         <v>4176.5</v>
@@ -1376,7 +1383,7 @@
         <v>3</v>
       </c>
       <c r="E19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F19">
         <v>4141</v>
@@ -1432,7 +1439,7 @@
         <v>24</v>
       </c>
       <c r="E20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F20">
         <v>4149.5</v>
@@ -1488,7 +1495,7 @@
         <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F21">
         <v>4101.5</v>
@@ -1544,7 +1551,7 @@
         <v>2</v>
       </c>
       <c r="E22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F22">
         <v>4148</v>
@@ -1600,7 +1607,7 @@
         <v>2</v>
       </c>
       <c r="E23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F23">
         <v>4130.5</v>
@@ -1656,7 +1663,7 @@
         <v>1</v>
       </c>
       <c r="E24" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F24">
         <v>4182.5</v>
@@ -1712,7 +1719,7 @@
         <v>3</v>
       </c>
       <c r="E25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F25">
         <v>4178.5</v>
@@ -1768,7 +1775,7 @@
         <v>7</v>
       </c>
       <c r="E26" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F26">
         <v>4161.5</v>
@@ -1824,7 +1831,7 @@
         <v>2</v>
       </c>
       <c r="E27" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F27">
         <v>4143.5</v>
@@ -1880,7 +1887,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F28">
         <v>4144.5</v>
@@ -1936,7 +1943,7 @@
         <v>5</v>
       </c>
       <c r="E29" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F29">
         <v>4171</v>
@@ -1992,7 +1999,7 @@
         <v>1</v>
       </c>
       <c r="E30" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F30">
         <v>4170.5</v>
@@ -2048,7 +2055,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F31">
         <v>4157.5</v>
@@ -2104,7 +2111,7 @@
         <v>1</v>
       </c>
       <c r="E32" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F32">
         <v>4137.5</v>
@@ -2229,20 +2236,25 @@
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>18</v>
+      </c>
       <c r="B43" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>5</v>
-      </c>
-      <c r="B44">
+      <c r="A44" s="3">
+        <f>AVERAGE(Q3:Q32)</f>
+        <v>1.8131447662947133E-6</v>
+      </c>
+      <c r="B44" s="3">
         <f>MAX(Q3:Q32)</f>
         <v>7.199251277843821E-6</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/example/mp_reports_01KP_26.05.2018-1.31.6.883_50_items/subset_summ_50.xlsx
+++ b/example/mp_reports_01KP_26.05.2018-1.31.6.883_50_items/subset_summ_50.xlsx
@@ -413,7 +413,7 @@
   <dimension ref="A1:Q44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="C35" sqref="C35:C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
